--- a/biology/Botanique/Ipomoea_grandifolia/Ipomoea_grandifolia.xlsx
+++ b/biology/Botanique/Ipomoea_grandifolia/Ipomoea_grandifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea grandifolia est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire d'Amérique du Sud. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum Sect. Eriospermum)[2]. Cette espèce diploïde (2n=2x=30) est un parent sauvage de la patate douce (Ipomoea batatas).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea grandifolia est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire d'Amérique du Sud. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum Sect. Eriospermum). Cette espèce diploïde (2n=2x=30) est un parent sauvage de la patate douce (Ipomoea batatas).
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (1 octobre 2019)[1] : 
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (1 octobre 2019) : 
 Ipomoea coccinea var. luteola Arechav.
 Jacquemontia grandifolia Dammer</t>
         </is>
